--- a/src/test/resources/Excel/TestDataLocalTemplates.xlsx
+++ b/src/test/resources/Excel/TestDataLocalTemplates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgulia\eclipse-workspace\PmeProvisionJobs\src\test\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgulia\git\Pro\PmeProvisionJobs\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05CFEB-3250-4C3C-A22C-82800302D95A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECAEE6-F605-4BCF-91E3-7858191EB53A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11070" tabRatio="707" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11070" tabRatio="707" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginAdmin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="277">
   <si>
     <t>pwd</t>
   </si>
@@ -848,9 +848,6 @@
     <t>11.5.2 - Move Phone Extension</t>
   </si>
   <si>
-    <t>18002345998</t>
-  </si>
-  <si>
     <t>Line Group QA Auto 56</t>
   </si>
   <si>
@@ -870,6 +867,9 @@
   </si>
   <si>
     <t>11.1.19 - Delete Extension Mobility (7970) to Existing Users</t>
+  </si>
+  <si>
+    <t>18002345100</t>
   </si>
 </sst>
 </file>
@@ -1240,13 +1240,13 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -1271,18 +1271,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9102E7C-8A57-408D-9BAC-0D8534F382EB}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="50.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>205</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>206</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>207</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>208</v>
       </c>
@@ -1336,22 +1336,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>212</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>213</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>214</v>
       </c>
@@ -1375,23 +1375,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>217</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>218</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>219</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>220</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>221</v>
       </c>
@@ -1431,197 +1431,197 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>260</v>
       </c>
@@ -1629,12 +1629,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>262</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>263</v>
       </c>
@@ -1650,42 +1650,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -1704,19 +1707,19 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="47.54296875" customWidth="1"/>
-    <col min="3" max="3" width="58.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="34.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -2364,19 +2367,19 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2503,12 +2506,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -2534,14 +2537,14 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="27.453125" customWidth="1"/>
+    <col min="3" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>1</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>1</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>1</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>1</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>0</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>1</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>1</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>0</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>1</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>1</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>0</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>1</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>1</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>0</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>1</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>1</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>0</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>1</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>1</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>0</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>1</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>1</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>0</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>1</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>1</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>0</v>
       </c>
@@ -2891,14 +2894,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>157</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>160</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>164</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>165</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>166</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>167</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>168</v>
       </c>
@@ -3033,13 +3036,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3068,13 +3071,13 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3103,13 +3106,13 @@
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -3138,14 +3141,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="27.453125" customWidth="1"/>
+    <col min="3" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3249,12 +3252,12 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3347,17 +3350,17 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="81.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="81.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3412,20 +3415,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9911944E-3768-432C-AC73-4E9091F39E0D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="36.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>197</v>
       </c>
@@ -3439,24 +3442,24 @@
         <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" t="s">
-        <v>270</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3477,20 +3480,20 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>

--- a/src/test/resources/Excel/TestDataLocalTemplates.xlsx
+++ b/src/test/resources/Excel/TestDataLocalTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgulia\git\Pro\PmeProvisionJobs\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECAEE6-F605-4BCF-91E3-7858191EB53A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073E71D-A291-4863-9E64-20538EC0E747}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11070" tabRatio="707" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,12 +848,6 @@
     <t>11.5.2 - Move Phone Extension</t>
   </si>
   <si>
-    <t>Line Group QA Auto 56</t>
-  </si>
-  <si>
-    <t>00 Hunt List QA Auto 054</t>
-  </si>
-  <si>
     <t>Delete - End User</t>
   </si>
   <si>
@@ -869,7 +863,13 @@
     <t>11.1.19 - Delete Extension Mobility (7970) to Existing Users</t>
   </si>
   <si>
-    <t>18002345100</t>
+    <t>18002346668</t>
+  </si>
+  <si>
+    <t>00 Hunt List QA Auto 118</t>
+  </si>
+  <si>
+    <t>Line Group QA Auto 224</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
         <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -3416,14 +3416,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
@@ -3442,24 +3442,24 @@
         <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
         <v>276</v>
-      </c>
-      <c r="B2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" t="s">
-        <v>269</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
